--- a/2020-9-13/modules/openpyxl_test/test.xlsx
+++ b/2020-9-13/modules/openpyxl_test/test.xlsx
@@ -460,170 +460,170 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>蒋萍</t>
+          <t>赵淑华</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18881535398</t>
+          <t>15868341182</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>台湾省俊县金平马鞍山路b座 603918</t>
+          <t>湖北省宇市长寿吴路d座 660504</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>杨丹</t>
+          <t>吴兵</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15385862111</t>
+          <t>18869659125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>四川省丽丽县海陵金街e座 718766</t>
+          <t>陕西省丽华市合川许街a座 582332</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>罗帆</t>
+          <t>王俊</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13213222514</t>
+          <t>13782708934</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海南省秀兰市高坪长沙路q座 632121</t>
+          <t>河北省兴安盟县蓟州海口街E座 829224</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>王璐</t>
+          <t>林凤英</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14591840580</t>
+          <t>18259052770</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>黑龙江省秀珍县璧山惠州路z座 828286</t>
+          <t>重庆市丽华县崇文徐街c座 529957</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>郭兰英</t>
+          <t>韩红梅</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13699065930</t>
+          <t>15261274827</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>台湾省成都县清浦赵街H座 796799</t>
+          <t>贵州省海门市上街刘街Z座 763400</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>孙桂荣</t>
+          <t>王文</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14586682477</t>
+          <t>18958090421</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>辽宁省彬市清河欧街w座 940123</t>
+          <t>吉林省东县浔阳钟路H座 592942</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>韩勇</t>
+          <t>李建平</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13472136788</t>
+          <t>15107985227</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北京市海门市金平张街A座 978455</t>
+          <t>江苏省瑞市西夏拉萨路K座 264348</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>张瑞</t>
+          <t>王秀芳</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13822294354</t>
+          <t>15992906092</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天津市波市沈北新熊街h座 546353</t>
+          <t>陕西省华市崇文张路z座 849462</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>彭云</t>
+          <t>李涛</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18914099223</t>
+          <t>18724916969</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>甘肃省北镇县清河西安路K座 881802</t>
+          <t>湖南省佳市丰都澳门街D座 706992</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>陶博</t>
+          <t>彭健</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15710615677</t>
+          <t>18097336590</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>福建省广州市涪城西宁街b座 793221</t>
+          <t>广东省通辽县涪城何街t座 111428</t>
         </is>
       </c>
     </row>
